--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -583,12 +583,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1414,11 +1414,11 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="A23" activePane="bottomLeft"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="C18" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="$A37:$XFD37"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -1414,11 +1414,11 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="C18" activePane="bottomRight"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="G19" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2001,7 +2001,9 @@
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
       <c r="F29">
         <v>501</v>
       </c>
@@ -2011,7 +2013,9 @@
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="2"/>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="3:10">

--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19755" windowHeight="11430"/>
+    <workbookView windowWidth="18120" windowHeight="11430"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 601 获得人口
 602 提升战银获得效率(千分比)（valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
-700 随机获得一个关卡效果
+700 敌人增强属性
 </t>
         </r>
       </text>
@@ -1413,12 +1413,12 @@
   <sheetPr/>
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="G19" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="F18" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -94,12 +94,11 @@
 600 获得战银 （valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
 601 获得人口
 602 提升战银获得效率(千分比)（valueList：1,2） 1 到 2 随机 ， 如果只有一个数目 就固定给
-700 敌人增强属性
-</t>
+700 敌人增强属性 和属性一样。  paramIntList[0]：是否准备阶段开始的时候属性清除，不清除的话就会每回合叠加</t>
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0">
+    <comment ref="J3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -127,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
   <si>
     <t>#</t>
   </si>
@@ -153,6 +152,9 @@
     <t>weightList</t>
   </si>
   <si>
+    <t>paramIntList</t>
+  </si>
+  <si>
     <t>maxGainTimesType</t>
   </si>
   <si>
@@ -186,12 +188,15 @@
     <t>类型</t>
   </si>
   <si>
-    <t>参数值列表</t>
+    <t>效果值列表</t>
   </si>
   <si>
     <t>奖励中数值的权重</t>
   </si>
   <si>
+    <t>参数，类型不同意义也不同</t>
+  </si>
+  <si>
     <t>最大获得次数</t>
   </si>
   <si>
@@ -316,6 +321,9 @@
   </si>
   <si>
     <t>100,150</t>
+  </si>
+  <si>
+    <t>通用 敌人获得属性</t>
   </si>
   <si>
     <t>获得技能 随机</t>
@@ -1411,14 +1419,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="F18" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="F26" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1429,11 +1437,11 @@
     <col min="5" max="5" width="15.75" customWidth="1"/>
     <col min="6" max="6" width="25.375" customWidth="1"/>
     <col min="7" max="7" width="33.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="10" width="30.75" customWidth="1"/>
+    <col min="8" max="9" width="27" customWidth="1"/>
+    <col min="10" max="11" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1464,96 +1472,105 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" ht="93" customHeight="1" spans="1:10">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="93" customHeight="1" spans="1:11">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
       <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10">
+        <v>23</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="2:10">
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="3:10">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="3:11">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-    </row>
-    <row r="7" ht="40.5" spans="1:10">
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:11">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1561,25 +1578,25 @@
         <v>100101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="2"/>
+        <v>28</v>
+      </c>
       <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1587,25 +1604,25 @@
         <v>100201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
         <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="2"/>
+        <v>31</v>
+      </c>
       <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1613,39 +1630,39 @@
         <v>100301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
         <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="2"/>
+        <v>31</v>
+      </c>
       <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="3:10">
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="3:11">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="3:10">
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="3:11">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-    </row>
-    <row r="12" ht="54" spans="1:10">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" ht="54" spans="1:11">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1653,25 +1670,25 @@
         <v>300101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
         <v>300</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="2"/>
+        <v>35</v>
+      </c>
       <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1679,40 +1696,40 @@
         <v>300201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
         <v>301</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="14" spans="3:10">
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="3:11">
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-    </row>
-    <row r="15" spans="3:10">
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="3:11">
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="3:10">
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="3:11">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1720,25 +1737,25 @@
         <v>400101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
         <v>400</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I17" s="2"/>
+        <v>40</v>
+      </c>
       <c r="J17" s="2"/>
-    </row>
-    <row r="18" ht="54" spans="1:10">
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" ht="54" spans="1:11">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1746,25 +1763,25 @@
         <v>400201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
         <v>401</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="2"/>
+        <v>43</v>
+      </c>
       <c r="J18" s="2"/>
-    </row>
-    <row r="19" ht="54" spans="1:10">
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" ht="54" spans="1:11">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1772,25 +1789,25 @@
         <v>400301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
         <v>402</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="2"/>
+        <v>43</v>
+      </c>
       <c r="J19" s="2"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1798,25 +1815,25 @@
         <v>400401</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
         <v>403</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H20" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" s="2"/>
+        <v>31</v>
+      </c>
       <c r="J20" s="2"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1824,25 +1841,25 @@
         <v>400501</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
         <v>404</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2"/>
+        <v>31</v>
+      </c>
       <c r="J21" s="2"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1850,19 +1867,19 @@
         <v>400601</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
         <v>405</v>
       </c>
-      <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-    </row>
-    <row r="23" customFormat="1" spans="1:10">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:11">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -1870,10 +1887,10 @@
         <v>400701</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1882,15 +1899,15 @@
         <v>406</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H23">
         <v>100</v>
       </c>
-      <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -1898,43 +1915,43 @@
         <v>400801</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
         <v>402</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="3:10">
+    <row r="25" spans="3:11">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="3:10">
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="3:11">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="G26" s="5"/>
-      <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-    </row>
-    <row r="27" ht="54" spans="1:10">
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" ht="54" spans="1:11">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -1942,25 +1959,25 @@
         <v>500101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
         <v>500</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="2"/>
+        <v>43</v>
+      </c>
       <c r="J27" s="2"/>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" spans="1:11">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -1968,10 +1985,10 @@
         <v>500201</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1980,15 +1997,15 @@
         <v>500</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H28">
         <v>1</v>
       </c>
-      <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" customFormat="1" spans="1:10">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" spans="1:11">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -1996,10 +2013,10 @@
         <v>500301</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2008,31 +2025,31 @@
         <v>501</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H29">
         <v>1</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>2</v>
       </c>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="3:10">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="3:11">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="3:10">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="3:11">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2040,22 +2057,22 @@
         <v>600101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
         <v>600</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I32" s="2"/>
+        <v>60</v>
+      </c>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -2063,22 +2080,22 @@
         <v>600201</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
         <v>601</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I33" s="2"/>
+        <v>62</v>
+      </c>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -2086,486 +2103,512 @@
         <v>600301</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
         <v>602</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>64</v>
+      </c>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="3:10">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="3:11">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="3:10">
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-    </row>
-    <row r="37" customFormat="1" spans="3:10">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>700101</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>700</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" customFormat="1" spans="3:11">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37"/>
       <c r="G37" s="1"/>
       <c r="H37"/>
-      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="3:10">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="3:11">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="3:10">
+      <c r="K38" s="2"/>
+    </row>
+    <row r="39" spans="3:11">
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="3:10">
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="3:11">
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="2:10">
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="2:11">
       <c r="B41">
         <v>10000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
         <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H41" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="2"/>
+        <v>69</v>
+      </c>
       <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="2:10">
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="2:11">
       <c r="B42">
         <v>10001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
         <v>101</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I42" s="2"/>
+        <v>72</v>
+      </c>
       <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="2:10">
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11">
       <c r="B43">
         <v>10002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
         <v>102</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>69</v>
-      </c>
-      <c r="I43" s="2"/>
+        <v>72</v>
+      </c>
       <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="2:10">
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11">
       <c r="B44">
         <v>10010</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
         <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H44" t="s">
-        <v>73</v>
-      </c>
-      <c r="I44" s="2"/>
+        <v>76</v>
+      </c>
       <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="3:10">
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="3:11">
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="3:10">
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="3:11">
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="2:10">
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="2:11">
       <c r="B47">
         <v>20000</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
         <v>200</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s">
-        <v>76</v>
-      </c>
-      <c r="I47" s="2"/>
+        <v>79</v>
+      </c>
       <c r="J47" s="2"/>
-    </row>
-    <row r="48" spans="3:10">
+      <c r="K47" s="2"/>
+    </row>
+    <row r="48" spans="3:11">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
-      <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-    </row>
-    <row r="49" spans="3:10">
+      <c r="K48" s="2"/>
+    </row>
+    <row r="49" spans="3:11">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-    </row>
-    <row r="50" spans="2:10">
+      <c r="K49" s="2"/>
+    </row>
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>30000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
         <v>300</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
-      </c>
-      <c r="I50" s="2"/>
+        <v>79</v>
+      </c>
       <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="3:10">
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="3:11">
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-    </row>
-    <row r="52" spans="3:10">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="3:11">
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-    </row>
-    <row r="53" spans="3:10">
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="3:11">
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I53" s="2"/>
+        <v>82</v>
+      </c>
       <c r="J53" s="2"/>
-    </row>
-    <row r="54" spans="2:10">
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>40000</v>
       </c>
       <c r="C54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D54" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
         <v>400</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H54" t="s">
-        <v>76</v>
-      </c>
-      <c r="I54" s="2"/>
+        <v>79</v>
+      </c>
       <c r="J54" s="2"/>
-    </row>
-    <row r="55" spans="2:10">
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="2:11">
       <c r="B55">
         <v>40001</v>
       </c>
       <c r="C55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
         <v>401</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H55">
         <v>100</v>
       </c>
-      <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-    </row>
-    <row r="56" spans="2:10">
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="2:11">
       <c r="B56">
         <v>40002</v>
       </c>
       <c r="C56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
         <v>400</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I56" s="2"/>
+        <v>88</v>
+      </c>
       <c r="J56" s="2"/>
-    </row>
-    <row r="58" spans="2:10">
+      <c r="K56" s="2"/>
+    </row>
+    <row r="58" spans="2:11">
       <c r="B58">
         <v>40010</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
         <v>401</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="2"/>
+        <v>79</v>
+      </c>
       <c r="J58" s="2"/>
-    </row>
-    <row r="59" customFormat="1" spans="2:10">
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" customFormat="1" spans="2:11">
       <c r="B59">
         <v>40011</v>
       </c>
       <c r="C59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
         <v>402</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H59">
         <v>100</v>
       </c>
-      <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-    </row>
-    <row r="62" customFormat="1" spans="2:10">
+      <c r="K59" s="2"/>
+    </row>
+    <row r="62" customFormat="1" spans="2:11">
       <c r="B62">
         <v>50000</v>
       </c>
       <c r="C62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
         <v>500</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H62">
         <v>100</v>
       </c>
-      <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-    </row>
-    <row r="64" spans="2:10">
+      <c r="K62" s="2"/>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64">
         <v>60001</v>
       </c>
       <c r="C64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
         <v>600</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I64" s="2"/>
+        <v>93</v>
+      </c>
       <c r="J64" s="2"/>
-    </row>
-    <row r="65" customFormat="1" spans="2:10">
+      <c r="K64" s="2"/>
+    </row>
+    <row r="65" customFormat="1" spans="2:11">
       <c r="B65">
         <v>60002</v>
       </c>
       <c r="C65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
         <v>601</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I65" s="2"/>
+        <v>62</v>
+      </c>
       <c r="J65" s="2"/>
-    </row>
-    <row r="68" customFormat="1" spans="2:10">
+      <c r="K65" s="2"/>
+    </row>
+    <row r="68" customFormat="1" spans="2:11">
       <c r="B68">
         <v>90001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
         <v>100</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H68" t="s">
-        <v>94</v>
-      </c>
-      <c r="I68" s="2"/>
+        <v>97</v>
+      </c>
       <c r="J68" s="2"/>
-    </row>
-    <row r="69" customFormat="1" spans="2:10">
+      <c r="K68" s="2"/>
+    </row>
+    <row r="69" customFormat="1" spans="2:11">
       <c r="B69">
         <v>90002</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
         <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
-      <c r="I69" s="2"/>
       <c r="J69" s="2"/>
-    </row>
-    <row r="71" spans="5:10">
+      <c r="K69" s="2"/>
+    </row>
+    <row r="71" spans="5:11">
       <c r="E71" s="2"/>
-      <c r="I71" s="2"/>
       <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2581,7 +2624,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2598,7 +2641,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18120" windowHeight="11430"/>
+    <workbookView windowWidth="16260" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -206,13 +206,16 @@
     <t>奖励大类型分类（左边到倒数第六位） + 业务编号（倒数第 5 位 到 倒数第 3 位 ）+等级（最后两位）</t>
   </si>
   <si>
+    <t>2801101,2801201,2801301,2801401,2801501,2801701,2801801,2801901,2802001,2802101</t>
+  </si>
+  <si>
     <t>通用 自己获得一个随机技能</t>
   </si>
   <si>
-    <t>2801101,2801201,2801301,2801401,2801501,2801701,2801801,2801901,2802001,2802101</t>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10</t>
+    <t>2801101,2801201,2801301</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
   </si>
   <si>
     <t>通用 给自己一个小招随机技能经验</t>
@@ -1422,11 +1425,11 @@
   <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="F26" activePane="bottomRight"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="D3" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G34" sqref="G34"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1563,14 +1566,17 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="3:11">
+    <row r="6" ht="40.5" spans="3:11">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="G6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" ht="40.5" spans="1:11">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1578,20 +1584,20 @@
         <v>100101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -1604,20 +1610,20 @@
         <v>100201</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
         <v>101</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1630,20 +1636,20 @@
         <v>100301</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
         <v>102</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1670,20 +1676,20 @@
         <v>300101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
         <v>300</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -1696,10 +1702,10 @@
         <v>300201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13">
@@ -1737,20 +1743,20 @@
         <v>400101</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17">
         <v>400</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1763,20 +1769,20 @@
         <v>400201</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18">
         <v>401</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1789,20 +1795,20 @@
         <v>400301</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19">
         <v>402</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1815,20 +1821,20 @@
         <v>400401</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20">
         <v>403</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1841,20 +1847,20 @@
         <v>400501</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21">
         <v>404</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1867,10 +1873,10 @@
         <v>400601</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22">
@@ -1887,10 +1893,10 @@
         <v>400701</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E23" s="2">
         <v>2</v>
@@ -1899,7 +1905,7 @@
         <v>406</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23">
         <v>100</v>
@@ -1915,17 +1921,17 @@
         <v>400801</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24">
         <v>402</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H24">
         <v>100</v>
@@ -1959,20 +1965,20 @@
         <v>500101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
         <v>500</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
@@ -1985,10 +1991,10 @@
         <v>500201</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1997,7 +2003,7 @@
         <v>500</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2013,10 +2019,10 @@
         <v>500301</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -2025,7 +2031,7 @@
         <v>501</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -2057,17 +2063,17 @@
         <v>600101</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32">
         <v>600</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
@@ -2080,17 +2086,17 @@
         <v>600201</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33">
         <v>601</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
@@ -2103,17 +2109,17 @@
         <v>600301</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34">
         <v>602</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -2133,10 +2139,10 @@
         <v>700101</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E36" s="2">
         <v>2</v>
@@ -2145,7 +2151,7 @@
         <v>700</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H36">
         <v>100</v>
@@ -2194,20 +2200,20 @@
         <v>10000</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41">
         <v>100</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
@@ -2217,20 +2223,20 @@
         <v>10001</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
         <v>101</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
@@ -2240,20 +2246,20 @@
         <v>10002</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43">
         <v>102</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
@@ -2263,20 +2269,20 @@
         <v>10010</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44">
         <v>100</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
@@ -2300,20 +2306,20 @@
         <v>20000</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47">
         <v>200</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
@@ -2339,20 +2345,20 @@
         <v>30000</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
         <v>300</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
@@ -2379,7 +2385,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
@@ -2389,20 +2395,20 @@
         <v>40000</v>
       </c>
       <c r="C54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54">
         <v>400</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -2412,17 +2418,17 @@
         <v>40001</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55">
         <v>401</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H55">
         <v>100</v>
@@ -2435,17 +2441,17 @@
         <v>40002</v>
       </c>
       <c r="C56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56">
         <v>400</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -2455,20 +2461,20 @@
         <v>40010</v>
       </c>
       <c r="C58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58">
         <v>401</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -2478,17 +2484,17 @@
         <v>40011</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
         <v>402</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H59">
         <v>100</v>
@@ -2501,17 +2507,17 @@
         <v>50000</v>
       </c>
       <c r="C62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
         <v>500</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H62">
         <v>100</v>
@@ -2524,17 +2530,17 @@
         <v>60001</v>
       </c>
       <c r="C64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64">
         <v>600</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -2544,17 +2550,17 @@
         <v>60002</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
         <v>601</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
@@ -2564,20 +2570,20 @@
         <v>90001</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
         <v>100</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
@@ -2587,17 +2593,17 @@
         <v>90002</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69">
         <v>100</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H69">
         <v>1</v>

--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="11700"/>
+    <workbookView windowWidth="16635" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -206,12 +206,54 @@
     <t>奖励大类型分类（左边到倒数第六位） + 业务编号（倒数第 5 位 到 倒数第 3 位 ）+等级（最后两位）</t>
   </si>
   <si>
-    <t>2801101,2801201,2801301,2801401,2801501,2801701,2801801,2801901,2802001,2802101</t>
-  </si>
-  <si>
     <t>通用 自己获得一个随机技能</t>
   </si>
   <si>
+    <t>2801101,2801401,2801601,2801801,2801901,2802001,2802101,2802201,2802301</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>通用 获得一个装备</t>
+  </si>
+  <si>
+    <t>1000001,1000002,1000003,1000004,1000005,1000006,1100001,1100002,1100003,1100004,1100005,1100006,1100007,1100008,1100009,1100010,1100011,1200001,1200002,1200003,1200004,1200005,1200006,1200007,1200008,1200009,1200010,1200011,1200012,1200013</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>通用 随机给英雄</t>
+  </si>
+  <si>
+    <t>1000001,1000002,1000003,1000007</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+  </si>
+  <si>
+    <t>通用 随机一个队友获得一个随机属性</t>
+  </si>
+  <si>
+    <t>4000001,4000002,4000003,4000004,4000005,4000006,4000007,4000008,4000009,4000010,4000011,4000012,4000013,</t>
+  </si>
+  <si>
+    <t>10,10,10,10,5,4,5,5,2,2,3,10,10</t>
+  </si>
+  <si>
+    <t>通用 自己获得随机属性</t>
+  </si>
+  <si>
+    <t>4001001,4001002,4001003,4001004,4001005,4001006,4001007,4001008,4001009,4001010,4001011,4001012,4001013,</t>
+  </si>
+  <si>
+    <t>通用 获得随机战银</t>
+  </si>
+  <si>
+    <t>100,1000</t>
+  </si>
+  <si>
     <t>2801101,2801201,2801301</t>
   </si>
   <si>
@@ -230,9 +272,6 @@
     <t>通用 随机一个队长技能增加经验</t>
   </si>
   <si>
-    <t>通用 获得一个装备</t>
-  </si>
-  <si>
     <t>100001,100002,100003,100004,100005,100006,100007,100008,100009,100010,100011,100012,100013,100014</t>
   </si>
   <si>
@@ -245,18 +284,9 @@
     <t>通用 随机复制一个装备（自己和队友和仓库）放到仓库中</t>
   </si>
   <si>
-    <t>通用 随机给英雄</t>
-  </si>
-  <si>
     <t>1000003,1000004,1000005,1000006</t>
   </si>
   <si>
-    <t>10,10,10,10</t>
-  </si>
-  <si>
-    <t>通用 随机一个队友获得一个随机属性</t>
-  </si>
-  <si>
     <t>4000001,4000002,4000003,4000004,4000005,4000006,4000007,4000008,4000009,4000010,4000011,4000012,4000015</t>
   </si>
   <si>
@@ -293,9 +323,6 @@
     <t>4000001</t>
   </si>
   <si>
-    <t>通用 自己获得随机属性</t>
-  </si>
-  <si>
     <t>通用 每次准备阶段 自己获得 50% 攻击力属性</t>
   </si>
   <si>
@@ -306,9 +333,6 @@
   </si>
   <si>
     <t>14850201</t>
-  </si>
-  <si>
-    <t>通用 获得随机战银</t>
   </si>
   <si>
     <t>500</t>
@@ -1055,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1072,6 +1096,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1422,14 +1449,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="D3" activePane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7380" ySplit="2715" topLeftCell="G4" activePane="bottomRight"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1566,17 +1593,15 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" ht="40.5" spans="3:11">
+    <row r="6" spans="3:11">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="G6" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="5"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" customFormat="1" ht="40.5" spans="1:11">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1584,133 +1609,156 @@
         <v>100101</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7">
         <v>100</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
         <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
       </c>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" customFormat="1" ht="108" spans="1:11">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8">
-        <v>100201</v>
+        <v>300101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8">
-        <v>101</v>
-      </c>
-      <c r="G8" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>32</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" customFormat="1" spans="1:11">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9">
-        <v>100301</v>
+        <v>400101</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9">
-        <v>102</v>
+        <v>400</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="3:11">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" customFormat="1" ht="54" spans="1:11">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>400201</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="E10" s="2"/>
+      <c r="F10">
+        <v>401</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="3:11">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" customFormat="1" ht="54" spans="1:11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>500101</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="2"/>
+      <c r="F11">
+        <v>500</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" ht="54" spans="1:11">
+    <row r="12" customFormat="1" spans="1:11">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12">
-        <v>300101</v>
+        <v>600101</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12">
-        <v>300</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" t="s">
-        <v>36</v>
+        <v>600</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>300201</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>38</v>
-      </c>
+    <row r="13" spans="3:11">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13">
-        <v>301</v>
-      </c>
+      <c r="G13" s="5"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
@@ -1718,6 +1766,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="G14" s="5"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
@@ -1725,6 +1774,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="G15" s="5"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -1732,603 +1782,543 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
+      <c r="G16" s="5"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>400101</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>39</v>
-      </c>
+    <row r="17" spans="3:11">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17">
-        <v>400</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>41</v>
-      </c>
+      <c r="G17" s="5"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" ht="54" spans="1:11">
-      <c r="A18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>400201</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
-      </c>
+    <row r="18" spans="3:11">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18">
-        <v>401</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>44</v>
-      </c>
+      <c r="G18" s="5"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" ht="54" spans="1:11">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>400301</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="19" spans="3:11">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19">
-        <v>402</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="H19" t="s">
-        <v>44</v>
-      </c>
+      <c r="G19" s="5"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20">
-        <v>400401</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>47</v>
-      </c>
+    <row r="20" spans="3:11">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20">
-        <v>403</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
+      <c r="G20" s="5"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21">
-        <v>400501</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
+    <row r="21" spans="3:11">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21">
-        <v>404</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
+      <c r="G21" s="5"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22">
-        <v>400601</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
+    <row r="22" spans="3:11">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22">
-        <v>405</v>
-      </c>
+      <c r="G22" s="5"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" customFormat="1" spans="1:11">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
-        <v>400701</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" s="2">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>406</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
+    <row r="23" spans="3:11">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="G23" s="5"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" t="s">
+    <row r="24" spans="3:11">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="G24" s="5"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B24">
-        <v>400801</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24">
-        <v>402</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24">
+      <c r="B25">
+        <v>100101</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25">
         <v>100</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="G25" s="5"/>
+      <c r="G25" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
+        <v>43</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>100201</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E26" s="2"/>
-      <c r="G26" s="5"/>
+      <c r="F26">
+        <v>101</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" ht="54" spans="1:11">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>500101</v>
+        <v>100301</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27">
-        <v>500</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>43</v>
+        <v>102</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" customFormat="1" spans="1:11">
-      <c r="A28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>500201</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>500</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
+    <row r="28" spans="3:11">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" customFormat="1" spans="1:11">
-      <c r="A29" t="s">
+    <row r="29" spans="3:11">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" ht="54" spans="1:11">
+      <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>500301</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>501</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="J29" s="2">
-        <v>2</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="3:11">
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
+      <c r="B30">
+        <v>300101</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="E30" s="2"/>
+      <c r="F30">
+        <v>300</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" t="s">
+        <v>49</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="3:11">
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>300201</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E31" s="2"/>
+      <c r="F31">
+        <v>301</v>
+      </c>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>600101</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>60</v>
-      </c>
+    <row r="32" spans="3:11">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32">
-        <v>600</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>600201</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
+    <row r="33" spans="3:11">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33">
-        <v>601</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>600301</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>64</v>
-      </c>
+    <row r="34" spans="3:11">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34">
-        <v>602</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="3:11">
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>400101</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="E35" s="2"/>
+      <c r="F35">
+        <v>400</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>34</v>
+      </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" ht="54" spans="1:11">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36">
-        <v>700101</v>
+        <v>400201</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36">
-        <v>700</v>
-      </c>
-      <c r="G36" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" t="s">
         <v>54</v>
       </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36">
-        <v>1</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1</v>
-      </c>
+      <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" customFormat="1" spans="3:11">
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
+    <row r="37" ht="54" spans="1:11">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>400301</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E37" s="2"/>
-      <c r="F37"/>
-      <c r="G37" s="1"/>
-      <c r="H37"/>
+      <c r="F37">
+        <v>402</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" t="s">
+        <v>54</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="3:11">
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>400401</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="E38" s="2"/>
+      <c r="F38">
+        <v>403</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="3:11">
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>400501</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="E39" s="2"/>
+      <c r="F39">
+        <v>404</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="3:11">
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>400601</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="E40" s="2"/>
+      <c r="F40">
+        <v>405</v>
+      </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" spans="2:11">
+    <row r="41" customFormat="1" spans="1:11">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
       <c r="B41">
-        <v>10000</v>
+        <v>400701</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
       <c r="F41">
+        <v>406</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41">
         <v>100</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H41" t="s">
-        <v>70</v>
       </c>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="2:11">
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
       <c r="B42">
-        <v>10001</v>
+        <v>400801</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42">
-        <v>101</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" t="s">
-        <v>73</v>
+        <v>402</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43">
-        <v>10002</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11">
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43">
-        <v>102</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H43" t="s">
-        <v>73</v>
-      </c>
+      <c r="G43" s="5"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11">
-      <c r="B44">
-        <v>10010</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>75</v>
-      </c>
+    <row r="44" spans="3:11">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" t="s">
-        <v>77</v>
-      </c>
+      <c r="G44" s="5"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" spans="3:11">
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+    <row r="45" ht="54" spans="1:11">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>500101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="E45" s="2"/>
+      <c r="F45">
+        <v>500</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" spans="3:11">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+    <row r="46" customFormat="1" spans="1:11">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>500201</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" s="2">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>500</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="2:11">
+    <row r="47" customFormat="1" spans="1:11">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
       <c r="B47">
-        <v>20000</v>
+        <v>500301</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E47" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E47" s="2">
+        <v>1</v>
+      </c>
       <c r="F47">
-        <v>200</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H47" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" s="2"/>
+        <v>501</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="3:11">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
     </row>
@@ -2336,46 +2326,75 @@
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11">
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
       <c r="B50">
-        <v>30000</v>
+        <v>600101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="H50" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="3:11">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+    <row r="51" spans="1:11">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>600201</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
+      <c r="F51">
+        <v>601</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="3:11">
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+    <row r="52" spans="1:11">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>600301</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
+      <c r="F52">
+        <v>602</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
     </row>
@@ -2383,238 +2402,493 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="2:11">
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
       <c r="B54">
-        <v>40000</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" s="2"/>
+        <v>700101</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
       <c r="F54">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J54" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="H54">
+        <v>100</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1</v>
+      </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="2:11">
-      <c r="B55">
-        <v>40001</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
+    <row r="55" customFormat="1" spans="3:11">
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55">
-        <v>401</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55">
-        <v>100</v>
-      </c>
+      <c r="F55"/>
+      <c r="G55" s="1"/>
+      <c r="H55"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
     </row>
-    <row r="56" spans="2:11">
-      <c r="B56">
-        <v>40002</v>
-      </c>
-      <c r="C56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" t="s">
-        <v>88</v>
-      </c>
+    <row r="56" spans="3:11">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56">
-        <v>400</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
     </row>
-    <row r="58" spans="2:11">
-      <c r="B58">
-        <v>40010</v>
-      </c>
-      <c r="C58" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" t="s">
-        <v>90</v>
-      </c>
+    <row r="57" spans="3:11">
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+    </row>
+    <row r="58" spans="3:11">
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58">
-        <v>401</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H58" t="s">
-        <v>80</v>
-      </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" customFormat="1" spans="2:11">
+    <row r="59" spans="2:11">
       <c r="B59">
-        <v>40011</v>
-      </c>
-      <c r="C59" t="s">
-        <v>91</v>
-      </c>
-      <c r="D59" t="s">
-        <v>91</v>
+        <v>10000</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59">
-        <v>402</v>
+        <v>100</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59">
-        <v>100</v>
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>78</v>
       </c>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
     </row>
-    <row r="62" customFormat="1" spans="2:11">
+    <row r="60" spans="2:11">
+      <c r="B60">
+        <v>10001</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60">
+        <v>101</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61">
+        <v>10002</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61">
+        <v>102</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="2:11">
       <c r="B62">
-        <v>50000</v>
-      </c>
-      <c r="C62" t="s">
-        <v>92</v>
-      </c>
-      <c r="D62" t="s">
-        <v>92</v>
+        <v>10010</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H62">
-        <v>100</v>
+        <v>84</v>
+      </c>
+      <c r="H62" t="s">
+        <v>85</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="64" spans="2:11">
-      <c r="B64">
-        <v>60001</v>
-      </c>
-      <c r="C64" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" t="s">
-        <v>93</v>
-      </c>
+    <row r="63" spans="3:11">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="3:11">
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64">
-        <v>600</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
     </row>
-    <row r="65" customFormat="1" spans="2:11">
+    <row r="65" spans="2:11">
       <c r="B65">
-        <v>60002</v>
-      </c>
-      <c r="C65" t="s">
-        <v>95</v>
-      </c>
-      <c r="D65" t="s">
-        <v>95</v>
+        <v>20000</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65">
-        <v>601</v>
+        <v>200</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>63</v>
+        <v>87</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
       </c>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
     </row>
-    <row r="68" customFormat="1" spans="2:11">
+    <row r="66" spans="3:11">
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="3:11">
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="2:11">
       <c r="B68">
-        <v>90001</v>
+        <v>30000</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" customFormat="1" spans="2:11">
-      <c r="B69">
-        <v>90002</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>99</v>
-      </c>
+    <row r="69" spans="3:11">
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69">
-        <v>100</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
+      <c r="F69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
     </row>
-    <row r="71" spans="5:11">
+    <row r="70" spans="3:11">
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="3:11">
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
+    </row>
+    <row r="72" spans="2:11">
+      <c r="B72">
+        <v>40000</v>
+      </c>
+      <c r="C72" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" t="s">
+        <v>92</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72">
+        <v>400</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H72" t="s">
+        <v>88</v>
+      </c>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+    </row>
+    <row r="73" spans="2:11">
+      <c r="B73">
+        <v>40001</v>
+      </c>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73">
+        <v>401</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73">
+        <v>100</v>
+      </c>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+    </row>
+    <row r="74" spans="2:11">
+      <c r="B74">
+        <v>40002</v>
+      </c>
+      <c r="C74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D74" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74">
+        <v>400</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+    </row>
+    <row r="76" spans="2:11">
+      <c r="B76">
+        <v>40010</v>
+      </c>
+      <c r="C76" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76">
+        <v>401</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H76" t="s">
+        <v>88</v>
+      </c>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+    </row>
+    <row r="77" customFormat="1" spans="2:11">
+      <c r="B77">
+        <v>40011</v>
+      </c>
+      <c r="C77" t="s">
+        <v>99</v>
+      </c>
+      <c r="D77" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77">
+        <v>402</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77">
+        <v>100</v>
+      </c>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="80" customFormat="1" spans="2:11">
+      <c r="B80">
+        <v>50000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80">
+        <v>500</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H80">
+        <v>100</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+    </row>
+    <row r="82" spans="2:11">
+      <c r="B82">
+        <v>60001</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>101</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82">
+        <v>600</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+    </row>
+    <row r="83" customFormat="1" spans="2:11">
+      <c r="B83">
+        <v>60002</v>
+      </c>
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
+        <v>103</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83">
+        <v>601</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+    </row>
+    <row r="86" customFormat="1" spans="2:11">
+      <c r="B86">
+        <v>90001</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86">
+        <v>100</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H86" t="s">
+        <v>106</v>
+      </c>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+    </row>
+    <row r="87" customFormat="1" spans="2:11">
+      <c r="B87">
+        <v>90002</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87">
+        <v>100</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+    </row>
+    <row r="89" spans="5:11">
+      <c r="E89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_config/BattleRewardEffectOption.xlsx
+++ b/data_config/BattleRewardEffectOption.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16635" windowHeight="11700"/>
+    <workbookView windowWidth="20265" windowHeight="11700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="109">
   <si>
     <t>#</t>
   </si>
@@ -236,7 +236,7 @@
     <t>通用 随机一个队友获得一个随机属性</t>
   </si>
   <si>
-    <t>4000001,4000002,4000003,4000004,4000005,4000006,4000007,4000008,4000009,4000010,4000011,4000012,4000013,</t>
+    <t>4000001,4000002,4000003,4000004,4000005,4000006,4000007,4000008,4000009,4000010,4000011,4000012,4000013</t>
   </si>
   <si>
     <t>10,10,10,10,5,4,5,5,2,2,3,10,10</t>
@@ -245,7 +245,7 @@
     <t>通用 自己获得随机属性</t>
   </si>
   <si>
-    <t>4001001,4001002,4001003,4001004,4001005,4001006,4001007,4001008,4001009,4001010,4001011,4001012,4001013,</t>
+    <t>4001001,4001002,4001003,4001004,4001005,4001006,4001007,4001008,4001009,4001010,4001011,4001012,4001013</t>
   </si>
   <si>
     <t>通用 获得随机战银</t>
@@ -1079,7 +1079,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1096,9 +1096,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1452,11 +1449,11 @@
   <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7380" ySplit="2715" topLeftCell="G4" activePane="bottomRight"/>
+      <pane xSplit="7380" ySplit="2715" topLeftCell="G12" activePane="bottomLeft"/>
       <selection/>
       <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25:A54"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1647,7 +1644,7 @@
       <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="J8" s="2"/>
@@ -1850,10 +1847,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
+    <row r="25" spans="2:11">
       <c r="B25">
         <v>100101</v>
       </c>
@@ -1876,10 +1870,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
+    <row r="26" spans="2:11">
       <c r="B26">
         <v>100201</v>
       </c>
@@ -1902,10 +1893,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" t="s">
-        <v>0</v>
-      </c>
+    <row r="27" spans="2:11">
       <c r="B27">
         <v>100301</v>
       </c>
@@ -1942,10 +1930,7 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" ht="54" spans="1:11">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
+    <row r="30" ht="54" spans="2:11">
       <c r="B30">
         <v>300101</v>
       </c>
@@ -1968,10 +1953,7 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
+    <row r="31" spans="2:11">
       <c r="B31">
         <v>300201</v>
       </c>
@@ -2009,10 +1991,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
+    <row r="35" spans="2:11">
       <c r="B35">
         <v>400101</v>
       </c>
@@ -2035,10 +2014,7 @@
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" ht="54" spans="1:11">
-      <c r="A36" t="s">
-        <v>0</v>
-      </c>
+    <row r="36" ht="54" spans="2:11">
       <c r="B36">
         <v>400201</v>
       </c>
@@ -2061,10 +2037,7 @@
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" ht="54" spans="1:11">
-      <c r="A37" t="s">
-        <v>0</v>
-      </c>
+    <row r="37" ht="54" spans="2:11">
       <c r="B37">
         <v>400301</v>
       </c>
@@ -2087,10 +2060,7 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
-        <v>0</v>
-      </c>
+    <row r="38" spans="2:11">
       <c r="B38">
         <v>400401</v>
       </c>
@@ -2113,10 +2083,7 @@
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
-        <v>0</v>
-      </c>
+    <row r="39" spans="2:11">
       <c r="B39">
         <v>400501</v>
       </c>
@@ -2139,10 +2106,7 @@
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>0</v>
-      </c>
+    <row r="40" spans="2:11">
       <c r="B40">
         <v>400601</v>
       </c>
@@ -2159,10 +2123,7 @@
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
-    <row r="41" customFormat="1" spans="1:11">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
+    <row r="41" customFormat="1" spans="2:11">
       <c r="B41">
         <v>400701</v>
       </c>
@@ -2187,10 +2148,7 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
+    <row r="42" spans="2:11">
       <c r="B42">
         <v>400801</v>
       </c>
@@ -2231,10 +2189,7 @@
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
     </row>
-    <row r="45" ht="54" spans="1:11">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
+    <row r="45" ht="54" spans="2:11">
       <c r="B45">
         <v>500101</v>
       </c>
@@ -2257,10 +2212,7 @@
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
     </row>
-    <row r="46" customFormat="1" spans="1:11">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
+    <row r="46" customFormat="1" spans="2:11">
       <c r="B46">
         <v>500201</v>
       </c>
@@ -2285,10 +2237,7 @@
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" customFormat="1" spans="1:11">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
+    <row r="47" customFormat="1" spans="2:11">
       <c r="B47">
         <v>500301</v>
       </c>
@@ -2329,10 +2278,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
+    <row r="50" spans="2:11">
       <c r="B50">
         <v>600101</v>
       </c>
@@ -2352,10 +2298,7 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
+    <row r="51" spans="2:11">
       <c r="B51">
         <v>600201</v>
       </c>
@@ -2375,10 +2318,7 @@
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
+    <row r="52" spans="2:11">
       <c r="B52">
         <v>600301</v>
       </c>
@@ -2405,10 +2345,7 @@
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
+    <row r="54" spans="2:11">
       <c r="B54">
         <v>700101</v>
       </c>
